--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/Тестовый ф-т ХХI-КПМ-30-1-500-Размова.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/Тестовый ф-т ХХI-КПМ-30-1-500-Размова.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3573,6 +3573,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3617,11 +3623,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3640,10 +3645,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3654,60 +3726,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3717,24 +3735,107 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3759,116 +3860,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3878,84 +3956,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -3986,6 +3986,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3993,9 +3996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6451,8 +6451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6464,25 +6464,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="370" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="490" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="369" t="s">
         <v>79</v>
       </c>
@@ -6493,45 +6493,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="494" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="371"/>
       <c r="D10" s="377" t="s">
         <v>94</v>
@@ -6542,33 +6542,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="376">
-        <v>43761</v>
-      </c>
-      <c r="F11" s="500" t="s">
+        <v>43896</v>
+      </c>
+      <c r="F11" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="485" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="485"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="485"/>
     </row>
     <row r="13" spans="1:11" ht="39.6">
       <c r="A13" s="381" t="s">
@@ -6586,23 +6586,23 @@
       <c r="E13" s="481" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="484" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="484"/>
+      <c r="H13" s="484"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="485" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="485"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="372" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="373">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="379" t="s">
         <v>110</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E14" s="373">
         <f>B14*D14</f>
-        <v>845</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6620,7 +6620,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="373">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="379" t="s">
         <v>110</v>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="E15" s="373">
         <f t="shared" ref="E15:E26" si="0">B15*D15</f>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6638,7 +6638,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="373">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="379" t="s">
         <v>110</v>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="E16" s="373">
         <f t="shared" si="0"/>
-        <v>1162.8000000000002</v>
+        <v>1094.4000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6656,7 +6656,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="373">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="379" t="s">
         <v>110</v>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E17" s="373">
         <f t="shared" si="0"/>
-        <v>44.2</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6674,7 +6674,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="373">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18" s="379" t="s">
         <v>110</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="E18" s="373">
         <f t="shared" si="0"/>
-        <v>103.2</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6692,7 +6692,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="373">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C19" s="379" t="s">
         <v>110</v>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="E19" s="373">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6710,7 +6710,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="373">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C20" s="379" t="s">
         <v>110</v>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="E20" s="373">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6745,7 +6745,9 @@
       <c r="A22" s="372" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="379"/>
+      <c r="B22" s="379">
+        <v>30</v>
+      </c>
       <c r="C22" s="379"/>
       <c r="D22" s="373"/>
       <c r="E22" s="373">
@@ -6758,7 +6760,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="373">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="379" t="s">
         <v>110</v>
@@ -6768,7 +6770,7 @@
       </c>
       <c r="E23" s="373">
         <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6776,7 +6778,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="373">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="379" t="s">
         <v>110</v>
@@ -6786,7 +6788,7 @@
       </c>
       <c r="E24" s="373">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6806,7 +6808,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="375">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="379" t="s">
         <v>110</v>
@@ -6816,7 +6818,7 @@
       </c>
       <c r="E26" s="373">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6824,7 +6826,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="380">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C27" s="382"/>
       <c r="D27" s="373"/>
@@ -6835,22 +6837,22 @@
       <c r="D28" s="377"/>
       <c r="E28" s="377">
         <f>SUM(E14:E27)</f>
-        <v>2400</v>
+        <v>2204.4</v>
       </c>
       <c r="F28">
         <v>2400</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>0</v>
+        <v>195.59999999999991</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="486"/>
+      <c r="C29" s="486"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -6859,12 +6861,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6874,6 +6870,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6927,24 +6929,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="169"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B20</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="611"/>
+        <v>50</v>
+      </c>
+      <c r="L2" s="605"/>
       <c r="M2" s="170"/>
       <c r="N2" s="171"/>
       <c r="O2" s="172"/>
@@ -6955,19 +6957,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="169"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="175"/>
       <c r="N3" s="176"/>
       <c r="O3" s="176"/>
@@ -6978,9 +6980,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="169"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -6999,22 +7001,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="169"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="178"/>
       <c r="N5" s="176"/>
       <c r="O5" s="176"/>
@@ -7025,22 +7027,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="169"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="175"/>
       <c r="N6" s="176"/>
       <c r="O6" s="176"/>
@@ -7051,27 +7053,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="169"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="178"/>
       <c r="N7" s="176"/>
       <c r="O7" s="176"/>
@@ -7466,6 +7468,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7477,14 +7487,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7550,47 +7552,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="208"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="605"/>
       <c r="M2" s="209"/>
       <c r="N2" s="210"/>
       <c r="O2" s="211"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="212"/>
       <c r="S2" s="213"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="208"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="214"/>
       <c r="N3" s="215"/>
       <c r="O3" s="215"/>
@@ -7601,9 +7603,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="208"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -7622,22 +7624,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="208"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="217"/>
       <c r="N5" s="215"/>
       <c r="O5" s="215"/>
@@ -7648,22 +7650,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="208"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="214"/>
       <c r="N6" s="215"/>
       <c r="O6" s="215"/>
@@ -7674,27 +7676,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="208"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="217"/>
       <c r="N7" s="215"/>
       <c r="O7" s="215"/>
@@ -8023,12 +8025,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="218"/>
-      <c r="B18" s="627" t="s">
+      <c r="B18" s="628" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="628"/>
-      <c r="D18" s="628"/>
-      <c r="E18" s="629"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="115" t="s">
         <v>16</v>
       </c>
@@ -8081,6 +8083,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
@@ -8091,16 +8103,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8175,24 +8177,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="132"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="L2" s="611"/>
+        <v>20</v>
+      </c>
+      <c r="L2" s="605"/>
       <c r="M2" s="133"/>
       <c r="N2" s="134"/>
       <c r="O2" s="135"/>
@@ -8203,19 +8205,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="132"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="138"/>
       <c r="N3" s="139"/>
       <c r="O3" s="139"/>
@@ -8226,9 +8228,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="132"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -8247,22 +8249,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="132"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="141"/>
       <c r="N5" s="139"/>
       <c r="O5" s="139"/>
@@ -8273,22 +8275,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="132"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="138"/>
       <c r="N6" s="139"/>
       <c r="O6" s="139"/>
@@ -8299,27 +8301,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="132"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="141"/>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -8709,6 +8711,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8720,14 +8730,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8750,7 +8752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -8793,22 +8795,22 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="265"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
+      <c r="J2" s="601"/>
       <c r="K2" s="633">
         <f>Данные!B23</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L2" s="634"/>
       <c r="M2" s="266"/>
@@ -8821,17 +8823,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="265"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
       <c r="K3" s="635"/>
       <c r="L3" s="636"/>
       <c r="M3" s="271"/>
@@ -8844,9 +8846,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="265"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -8865,22 +8867,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="265"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="274"/>
       <c r="N5" s="272"/>
       <c r="O5" s="272"/>
@@ -8891,22 +8893,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="265"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="271"/>
       <c r="N6" s="272"/>
       <c r="O6" s="272"/>
@@ -8917,27 +8919,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="265"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="274"/>
       <c r="N7" s="272"/>
       <c r="O7" s="272"/>
@@ -9219,6 +9221,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -9235,9 +9240,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9322,17 +9324,17 @@
       <c r="L2" s="388"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="507" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="389"/>
       <c r="L3" s="389"/>
       <c r="M3" s="390"/>
@@ -9393,7 +9395,7 @@
       </c>
       <c r="D6" s="401">
         <f>Данные!$B14</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="401">
         <v>26</v>
@@ -9424,7 +9426,7 @@
       </c>
       <c r="D7" s="407">
         <f>Данные!$B15</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="407">
         <v>26</v>
@@ -9455,7 +9457,7 @@
       </c>
       <c r="D8" s="407">
         <f>Данные!$B16</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="407">
         <v>30</v>
@@ -9486,7 +9488,7 @@
       </c>
       <c r="D9" s="407">
         <f>Данные!$B17</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="407">
         <v>30</v>
@@ -9517,7 +9519,7 @@
       </c>
       <c r="D10" s="407">
         <f>Данные!$B18</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10" s="407">
         <v>70</v>
@@ -9548,7 +9550,7 @@
       </c>
       <c r="D11" s="407">
         <f>Данные!$B19</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" s="407">
         <v>70</v>
@@ -9579,7 +9581,7 @@
       </c>
       <c r="D12" s="407">
         <f>Данные!$B20</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E12" s="407">
         <v>50</v>
@@ -9643,7 +9645,7 @@
       </c>
       <c r="D14" s="407">
         <f>Данные!$B22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E14" s="478" t="s">
         <v>93</v>
@@ -9676,7 +9678,7 @@
       </c>
       <c r="D15" s="407">
         <f>Данные!$B23</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="407">
         <v>24</v>
@@ -9707,7 +9709,7 @@
       </c>
       <c r="D16" s="407">
         <f>Данные!$B24</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="407">
         <v>9</v>
@@ -9738,7 +9740,7 @@
       </c>
       <c r="D17" s="417">
         <f>Данные!$B26</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="417">
         <v>24</v>
@@ -9817,7 +9819,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="429">
         <f>D6*700000</f>
-        <v>18200000</v>
+        <v>16800000</v>
       </c>
       <c r="B21" s="430">
         <v>43759</v>
@@ -9836,15 +9838,15 @@
       </c>
       <c r="G21" s="433">
         <f>F21/A$21</f>
-        <v>5.6698626373626375E-2</v>
+        <v>6.1423511904761904E-2</v>
       </c>
       <c r="H21" s="434">
         <f>A21-F21</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I21" s="435">
         <f>1-G21</f>
-        <v>0.94330137362637367</v>
+        <v>0.93857648809523808</v>
       </c>
       <c r="J21" s="436"/>
       <c r="K21" s="410"/>
@@ -9863,11 +9865,11 @@
       </c>
       <c r="H22" s="440">
         <f>H21-F22</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I22" s="441">
         <f>I21-G22</f>
-        <v>0.94330137362637367</v>
+        <v>0.93857648809523808</v>
       </c>
       <c r="J22" s="390"/>
       <c r="K22" s="390"/>
@@ -10016,15 +10018,15 @@
       </c>
       <c r="G32" s="465">
         <f>SUM(G21:G31)</f>
-        <v>5.6698626373626375E-2</v>
+        <v>6.1423511904761904E-2</v>
       </c>
       <c r="H32" s="466">
         <f>A21-F32</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I32" s="467">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
+        <v>0.93857648809523808</v>
       </c>
       <c r="J32" s="468"/>
       <c r="K32" s="468"/>
@@ -10043,12 +10045,12 @@
       <c r="J35" s="390"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="508" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
       <c r="E36" s="390"/>
       <c r="F36" s="390"/>
       <c r="G36" s="390"/>
@@ -10057,10 +10059,10 @@
       <c r="J36" s="390"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="509" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="506"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="469" t="s">
         <v>135</v>
       </c>
@@ -10075,18 +10077,18 @@
       <c r="J37" s="390"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="507">
+      <c r="A38" s="510">
         <f>A21-F32</f>
-        <v>17168085</v>
-      </c>
-      <c r="B38" s="508"/>
+        <v>15768085</v>
+      </c>
+      <c r="B38" s="511"/>
       <c r="C38" s="470">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
+        <v>0.93857648809523808</v>
       </c>
       <c r="D38" s="471">
         <f>(C38/0.8)*100</f>
-        <v>117.91267170329671</v>
+        <v>117.32206101190474</v>
       </c>
       <c r="E38" s="472" t="s">
         <v>137</v>
@@ -10141,8 +10143,8 @@
       <c r="F42" s="474"/>
       <c r="G42" s="474"/>
       <c r="H42" s="474"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="I42" s="502"/>
+      <c r="J42" s="503"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="475"/>
@@ -10236,9 +10238,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="390"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
+      <c r="B52" s="505"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
       <c r="E52" s="472"/>
       <c r="F52" s="390"/>
       <c r="G52" s="390"/>
@@ -10255,8 +10257,8 @@
       <c r="F53" s="474"/>
       <c r="G53" s="474"/>
       <c r="H53" s="474"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="475"/>
@@ -10267,8 +10269,8 @@
       <c r="F54" s="420"/>
       <c r="G54" s="420"/>
       <c r="H54" s="476"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="I54" s="504"/>
+      <c r="J54" s="504"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="475"/>
@@ -10279,8 +10281,8 @@
       <c r="F55" s="410"/>
       <c r="G55" s="410"/>
       <c r="H55" s="410"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="504"/>
+      <c r="J55" s="504"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="390"/>
@@ -10293,26 +10295,26 @@
       <c r="H56" s="390"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="502"/>
+      <c r="C61" s="503"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10395,47 +10397,47 @@
       <c r="J8" s="316"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
+      <c r="D11" s="537"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="537"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="536" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
+      <c r="B12" s="536"/>
+      <c r="C12" s="536"/>
+      <c r="D12" s="536"/>
+      <c r="E12" s="536"/>
+      <c r="F12" s="536"/>
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="514" t="str">
+      <c r="A13" s="538" t="str">
         <f>Данные!A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="310" t="s">
@@ -10449,7 +10451,7 @@
       <c r="G15" s="311"/>
       <c r="H15" s="312">
         <f>Данные!D11</f>
-        <v>43761</v>
+        <v>43896</v>
       </c>
       <c r="I15" s="310"/>
       <c r="J15" s="311"/>
@@ -10541,7 +10543,7 @@
       <c r="H20" s="310"/>
       <c r="I20" s="312">
         <f>H15</f>
-        <v>43761</v>
+        <v>43896</v>
       </c>
       <c r="J20" s="311"/>
     </row>
@@ -10560,482 +10562,482 @@
       <c r="J21" s="311"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="518" t="s">
+      <c r="A22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="519">
+      <c r="A24" s="512">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="518"/>
+      <c r="G24" s="521">
         <f>Данные!B14</f>
-        <v>26</v>
-      </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+        <v>24</v>
+      </c>
+      <c r="H24" s="523"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="525"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="527"/>
+      <c r="J25" s="528"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="519">
+      <c r="A26" s="512">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="515"/>
+      <c r="D26" s="516"/>
+      <c r="E26" s="517" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="518"/>
+      <c r="G26" s="521">
         <f>Данные!B15</f>
-        <v>26</v>
-      </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="523"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="525"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="530"/>
+      <c r="D27" s="531"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="527"/>
+      <c r="J27" s="528"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="519">
+      <c r="A28" s="512">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="514" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="515"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="517" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="518"/>
+      <c r="G28" s="521">
         <f>Данные!B16</f>
-        <v>34</v>
-      </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+        <v>32</v>
+      </c>
+      <c r="H28" s="523"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="525"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="530"/>
+      <c r="D29" s="531"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="520"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="527"/>
+      <c r="J29" s="528"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="519">
+      <c r="A30" s="512">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="514" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="515"/>
+      <c r="D30" s="516"/>
+      <c r="E30" s="517" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="518"/>
+      <c r="G30" s="521">
         <f>Данные!B17</f>
-        <v>34</v>
-      </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+        <v>32</v>
+      </c>
+      <c r="H30" s="523"/>
+      <c r="I30" s="524"/>
+      <c r="J30" s="525"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="A31" s="513"/>
+      <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="530"/>
+      <c r="D31" s="531"/>
+      <c r="E31" s="519"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="527"/>
+      <c r="J31" s="528"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="519">
+      <c r="A32" s="512">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="514" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="515"/>
+      <c r="D32" s="516"/>
+      <c r="E32" s="517" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="518"/>
+      <c r="G32" s="521">
         <f>Данные!B18</f>
-        <v>80</v>
-      </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+        <v>60</v>
+      </c>
+      <c r="H32" s="523"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="A33" s="513"/>
+      <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="530"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="519"/>
+      <c r="F33" s="520"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="519">
+      <c r="A34" s="512">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="514" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="517" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="518"/>
+      <c r="G34" s="521">
         <f>Данные!B19</f>
-        <v>80</v>
-      </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+        <v>60</v>
+      </c>
+      <c r="H34" s="523"/>
+      <c r="I34" s="524"/>
+      <c r="J34" s="525"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="A35" s="513"/>
+      <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="519"/>
+      <c r="F35" s="520"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="528"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="519">
+      <c r="A36" s="512">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="514" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="515"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="517" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="518"/>
+      <c r="G36" s="521">
         <f>Данные!B20</f>
-        <v>80</v>
-      </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="523"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="525"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="A37" s="513"/>
+      <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="519"/>
+      <c r="F37" s="520"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="526"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="528"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="519">
+      <c r="A38" s="512">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="514" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="515"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="517" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="518"/>
+      <c r="G38" s="521">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="523"/>
+      <c r="I38" s="524"/>
+      <c r="J38" s="525"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="A39" s="513"/>
+      <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="531"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="526"/>
+      <c r="I39" s="527"/>
+      <c r="J39" s="528"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="519">
+      <c r="A40" s="512">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="514" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="515"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="517" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="518"/>
+      <c r="G40" s="521">
         <f>Данные!B23</f>
-        <v>24</v>
-      </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+        <v>20</v>
+      </c>
+      <c r="H40" s="523"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="525"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="A41" s="513"/>
+      <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="530"/>
+      <c r="D41" s="531"/>
+      <c r="E41" s="519"/>
+      <c r="F41" s="520"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="526"/>
+      <c r="I41" s="527"/>
+      <c r="J41" s="528"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="519">
+      <c r="A42" s="512">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="514" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="515"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="517" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="518"/>
+      <c r="G42" s="521">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+        <v>20</v>
+      </c>
+      <c r="H42" s="523"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="A43" s="513"/>
+      <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="530"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="519"/>
+      <c r="F43" s="520"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="526"/>
+      <c r="I43" s="527"/>
+      <c r="J43" s="528"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="519">
+      <c r="A44" s="512">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="514" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="515"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="517">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="518"/>
+      <c r="G44" s="521">
         <f>Данные!B27</f>
-        <v>24</v>
-      </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+        <v>20</v>
+      </c>
+      <c r="H44" s="523"/>
+      <c r="I44" s="524"/>
+      <c r="J44" s="525"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="A45" s="513"/>
+      <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="530"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="519"/>
+      <c r="F45" s="520"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="526"/>
+      <c r="I45" s="527"/>
+      <c r="J45" s="528"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="519">
+      <c r="A46" s="512">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521" t="str">
+      <c r="C46" s="515"/>
+      <c r="D46" s="516"/>
+      <c r="E46" s="517" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525">
+      <c r="F46" s="518"/>
+      <c r="G46" s="521">
         <f>Данные!B24</f>
-        <v>9</v>
-      </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+        <v>8</v>
+      </c>
+      <c r="H46" s="523"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="525"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="A47" s="513"/>
+      <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="530"/>
+      <c r="D47" s="531"/>
+      <c r="E47" s="519"/>
+      <c r="F47" s="520"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="527"/>
+      <c r="J47" s="528"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="310"/>
@@ -11164,70 +11166,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11244,6 +11182,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11298,47 +11300,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="553"/>
-      <c r="E2" s="560" t="s">
+      <c r="B2" s="543"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="552" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="567" t="s">
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="554"/>
+      <c r="I2" s="559" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="568"/>
-      <c r="K2" s="571">
+      <c r="J2" s="560"/>
+      <c r="K2" s="563">
         <f>Данные!B14</f>
-        <v>26</v>
-      </c>
-      <c r="L2" s="572"/>
+        <v>24</v>
+      </c>
+      <c r="L2" s="564"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="563"/>
-      <c r="Q2" s="563"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="555"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="554"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="556"/>
-      <c r="E3" s="564" t="s">
+      <c r="B3" s="546"/>
+      <c r="C3" s="547"/>
+      <c r="D3" s="548"/>
+      <c r="E3" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="565"/>
-      <c r="G3" s="565"/>
-      <c r="H3" s="566"/>
-      <c r="I3" s="569"/>
-      <c r="J3" s="570"/>
-      <c r="K3" s="573"/>
-      <c r="L3" s="574"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="558"/>
+      <c r="I3" s="561"/>
+      <c r="J3" s="562"/>
+      <c r="K3" s="565"/>
+      <c r="L3" s="566"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11349,9 +11351,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="557"/>
-      <c r="C4" s="558"/>
-      <c r="D4" s="559"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="550"/>
+      <c r="D4" s="551"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11370,22 +11372,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="579"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="571"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="581"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="572"/>
+      <c r="J5" s="573"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11396,22 +11398,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="574"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="580"/>
-      <c r="J6" s="581"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="572"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11422,27 +11424,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="543"/>
-      <c r="D7" s="497">
+      <c r="C7" s="578"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="542" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="577" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="546"/>
-      <c r="K7" s="485">
+      <c r="J7" s="581"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11932,12 +11934,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4">
       <c r="A23" s="78"/>
-      <c r="B23" s="547" t="s">
+      <c r="B23" s="582" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="549"/>
+      <c r="C23" s="583"/>
+      <c r="D23" s="583"/>
+      <c r="E23" s="584"/>
       <c r="F23" s="115" t="s">
         <v>16</v>
       </c>
@@ -11959,12 +11961,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1">
       <c r="A24" s="78"/>
-      <c r="B24" s="575" t="s">
+      <c r="B24" s="567" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="576"/>
-      <c r="D24" s="576"/>
-      <c r="E24" s="577"/>
+      <c r="C24" s="568"/>
+      <c r="D24" s="568"/>
+      <c r="E24" s="569"/>
       <c r="F24" s="115" t="s">
         <v>16</v>
       </c>
@@ -12007,16 +12009,21 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
     <row r="27" spans="1:19">
-      <c r="K27" s="550" t="s">
+      <c r="K27" s="542" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="550"/>
-      <c r="M27" s="550"/>
+      <c r="L27" s="542"/>
+      <c r="M27" s="542"/>
       <c r="N27" s="482"/>
       <c r="O27" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:H2"/>
@@ -12033,11 +12040,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12064,7 +12066,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16:E16"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -12103,50 +12105,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="585">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B15</f>
-        <v>26</v>
-      </c>
-      <c r="L2" s="611"/>
+        <v>24</v>
+      </c>
+      <c r="L2" s="605"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="563"/>
-      <c r="Q2" s="563"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="555"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12157,9 +12159,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -12178,22 +12180,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12204,22 +12206,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12230,27 +12232,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12385,7 +12387,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="321">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" s="97">
         <v>0.1</v>
@@ -12447,12 +12449,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="589" t="s">
+      <c r="B14" s="615" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="590"/>
-      <c r="D14" s="590"/>
-      <c r="E14" s="590"/>
+      <c r="C14" s="616"/>
+      <c r="D14" s="616"/>
+      <c r="E14" s="616"/>
       <c r="F14" s="115" t="s">
         <v>16</v>
       </c>
@@ -12474,13 +12476,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="547" t="s">
+      <c r="B15" s="582" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="548"/>
-      <c r="D15" s="548"/>
-      <c r="E15" s="548"/>
-      <c r="F15" s="588"/>
+      <c r="C15" s="583"/>
+      <c r="D15" s="583"/>
+      <c r="E15" s="583"/>
+      <c r="F15" s="614"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12499,12 +12501,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="575" t="s">
+      <c r="B16" s="567" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="576"/>
-      <c r="D16" s="576"/>
-      <c r="E16" s="577"/>
+      <c r="C16" s="568"/>
+      <c r="D16" s="568"/>
+      <c r="E16" s="569"/>
       <c r="F16" s="115" t="s">
         <v>16</v>
       </c>
@@ -12551,16 +12553,22 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="B19" s="122"/>
-      <c r="L19" s="550" t="s">
+      <c r="L19" s="542" t="s">
         <v>141</v>
       </c>
-      <c r="M19" s="550"/>
-      <c r="N19" s="550"/>
+      <c r="M19" s="542"/>
+      <c r="N19" s="542"/>
       <c r="O19" s="482"/>
       <c r="P19" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:H2"/>
@@ -12577,12 +12585,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12656,47 +12658,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="553"/>
-      <c r="E2" s="560" t="s">
+      <c r="B2" s="543"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="552" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="567" t="s">
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="554"/>
+      <c r="I2" s="559" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="568"/>
-      <c r="K2" s="571">
+      <c r="J2" s="560"/>
+      <c r="K2" s="563">
         <f>Данные!B16</f>
-        <v>34</v>
-      </c>
-      <c r="L2" s="572"/>
+        <v>32</v>
+      </c>
+      <c r="L2" s="564"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="563"/>
-      <c r="Q2" s="563"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="555"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="554"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="556"/>
-      <c r="E3" s="564" t="s">
+      <c r="B3" s="546"/>
+      <c r="C3" s="547"/>
+      <c r="D3" s="548"/>
+      <c r="E3" s="556" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="565"/>
-      <c r="G3" s="565"/>
-      <c r="H3" s="566"/>
-      <c r="I3" s="569"/>
-      <c r="J3" s="570"/>
-      <c r="K3" s="573"/>
-      <c r="L3" s="574"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="558"/>
+      <c r="I3" s="561"/>
+      <c r="J3" s="562"/>
+      <c r="K3" s="565"/>
+      <c r="L3" s="566"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12707,9 +12709,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="557"/>
-      <c r="C4" s="558"/>
-      <c r="D4" s="559"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="550"/>
+      <c r="D4" s="551"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12728,22 +12730,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="579"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="571"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="581"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="572"/>
+      <c r="J5" s="573"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12754,22 +12756,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="574"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="580"/>
-      <c r="J6" s="581"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="572"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12780,27 +12782,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="543"/>
-      <c r="D7" s="497">
+      <c r="C7" s="578"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="542" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="577" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="546"/>
-      <c r="K7" s="485">
+      <c r="J7" s="581"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13292,11 +13294,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13311,6 +13308,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13378,24 +13380,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="553"/>
-      <c r="E2" s="560" t="s">
+      <c r="B2" s="543"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="552" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="567" t="s">
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="554"/>
+      <c r="I2" s="559" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="568"/>
-      <c r="K2" s="571">
+      <c r="J2" s="560"/>
+      <c r="K2" s="563">
         <f>Данные!B17</f>
-        <v>34</v>
-      </c>
-      <c r="L2" s="572"/>
+        <v>32</v>
+      </c>
+      <c r="L2" s="564"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13406,19 +13408,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="554"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="556"/>
-      <c r="E3" s="564" t="s">
+      <c r="B3" s="546"/>
+      <c r="C3" s="547"/>
+      <c r="D3" s="548"/>
+      <c r="E3" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="565"/>
-      <c r="G3" s="565"/>
-      <c r="H3" s="566"/>
-      <c r="I3" s="569"/>
-      <c r="J3" s="570"/>
-      <c r="K3" s="573"/>
-      <c r="L3" s="574"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="558"/>
+      <c r="I3" s="561"/>
+      <c r="J3" s="562"/>
+      <c r="K3" s="565"/>
+      <c r="L3" s="566"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13429,9 +13431,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="557"/>
-      <c r="C4" s="558"/>
-      <c r="D4" s="559"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="550"/>
+      <c r="D4" s="551"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13450,22 +13452,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="579"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="571"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="581"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="572"/>
+      <c r="J5" s="573"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13476,22 +13478,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="574"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="580"/>
-      <c r="J6" s="581"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="572"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13502,27 +13504,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="543"/>
-      <c r="D7" s="497">
+      <c r="C7" s="578"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="542" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="577" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="546"/>
-      <c r="K7" s="485">
+      <c r="J7" s="581"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13816,6 +13818,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K5:L5"/>
@@ -13823,18 +13837,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13906,24 +13908,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B18</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="611"/>
+        <v>60</v>
+      </c>
+      <c r="L2" s="605"/>
       <c r="M2" s="619"/>
       <c r="N2" s="620"/>
       <c r="O2" s="620"/>
@@ -13934,19 +13936,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="622"/>
       <c r="N3" s="623"/>
       <c r="O3" s="623"/>
@@ -13957,9 +13959,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -13978,22 +13980,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="622"/>
       <c r="N5" s="623"/>
       <c r="O5" s="623"/>
@@ -14004,22 +14006,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="622"/>
       <c r="N6" s="623"/>
       <c r="O6" s="623"/>
@@ -14030,27 +14032,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="622"/>
       <c r="N7" s="623"/>
       <c r="O7" s="623"/>
@@ -14445,12 +14447,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1">
       <c r="A20" s="78"/>
-      <c r="B20" s="575" t="s">
+      <c r="B20" s="567" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="576"/>
-      <c r="D20" s="576"/>
-      <c r="E20" s="577"/>
+      <c r="C20" s="568"/>
+      <c r="D20" s="568"/>
+      <c r="E20" s="569"/>
       <c r="F20" s="115" t="s">
         <v>16</v>
       </c>
@@ -14505,6 +14507,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14521,10 +14527,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14589,24 +14591,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="585"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="587"/>
+      <c r="E2" s="594" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B19</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="611"/>
+        <v>60</v>
+      </c>
+      <c r="L2" s="605"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14617,19 +14619,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="588"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="590"/>
+      <c r="E3" s="597" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14640,9 +14642,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="592"/>
+      <c r="D4" s="593"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -14661,22 +14663,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="570" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14687,22 +14689,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="578" t="s">
+      <c r="B6" s="570" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="583"/>
-      <c r="F6" s="583"/>
-      <c r="G6" s="583"/>
-      <c r="H6" s="584"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="575"/>
+      <c r="F6" s="575"/>
+      <c r="G6" s="575"/>
+      <c r="H6" s="576"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14713,27 +14715,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="577" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="497">
+      <c r="C7" s="612"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="544"/>
-      <c r="F7" s="544"/>
-      <c r="G7" s="544"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="585" t="s">
+      <c r="E7" s="579"/>
+      <c r="F7" s="579"/>
+      <c r="G7" s="579"/>
+      <c r="H7" s="580"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="485">
+      <c r="J7" s="612"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14996,12 +14998,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="575" t="s">
+      <c r="B16" s="567" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="576"/>
-      <c r="D16" s="576"/>
-      <c r="E16" s="577"/>
+      <c r="C16" s="568"/>
+      <c r="D16" s="568"/>
+      <c r="E16" s="569"/>
       <c r="F16" s="258" t="s">
         <v>16</v>
       </c>
@@ -15056,6 +15058,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -15063,19 +15078,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
